--- a/data/trans_bre/P1418-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1418-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06555665224581725</v>
+        <v>0.4461162877428436</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2331007378624611</v>
+        <v>-0.3455306011888307</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2816074835854337</v>
+        <v>0.0907108484609145</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3185914743638991</v>
+        <v>0.4812831078541706</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.02597508881102543</v>
+        <v>0.02470879264368406</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4855288886173879</v>
+        <v>-0.5210501044346347</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2369387501890607</v>
+        <v>-0.1385253190429807</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.04681551056712516</v>
+        <v>0.06838514961367587</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.361958193860424</v>
+        <v>7.57901957485281</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.51968857516055</v>
+        <v>3.685554956038076</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.021498444373272</v>
+        <v>5.088614939689291</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.703251225590133</v>
+        <v>4.853718656246232</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.368228750358688</v>
+        <v>2.295565226197012</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10.62451180964937</v>
+        <v>11.45697169331638</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5.077044875407817</v>
+        <v>5.417224069134194</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.444121346503899</v>
+        <v>2.55262569050181</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.466973672123111</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.230034034913989</v>
+        <v>3.230034034913991</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.195305144528191</v>
@@ -749,7 +749,7 @@
         <v>2.069102767535175</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.314014651210808</v>
+        <v>1.314014651210809</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.518441162257564</v>
+        <v>-2.093317109082362</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5608853716162496</v>
+        <v>0.1609182682337989</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.08498378992846191</v>
+        <v>0.000126062860990299</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9963212265227173</v>
+        <v>1.057836112602137</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4149625752844687</v>
+        <v>-0.355135411879819</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03284089063167624</v>
+        <v>-0.1624949926531455</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4161557715095927</v>
+        <v>-0.4231842793284831</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1993707413862124</v>
+        <v>0.3229245262289578</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,30 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.339543435463422</v>
+        <v>4.248342252025767</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.039717593043848</v>
+        <v>6.194172228356935</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.600338527959891</v>
+        <v>3.607030691931306</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.660891109485959</v>
+        <v>5.7062457616347</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.342376484198412</v>
+        <v>1.252008035086801</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>6.660085188945302</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>16.69233057425487</v>
+        <v>7.392024479711056</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.378798826702607</v>
+        <v>3.47711779858348</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +862,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3015033570914674</v>
+        <v>-0.3970019591471892</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.909984919061124</v>
+        <v>3.790738914793353</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.383444342023873</v>
+        <v>2.557326053214553</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.759485905680398</v>
+        <v>6.098630437594615</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.09250284240044908</v>
+        <v>-0.09386951415866517</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7984684977021418</v>
+        <v>0.87108558780368</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7961997313935045</v>
+        <v>0.7862875048515675</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.8994109717869432</v>
+        <v>0.962261930541949</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +894,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.11258961546084</v>
+        <v>10.09574568098386</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.61480978620774</v>
+        <v>12.34098797246264</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.20860457011195</v>
+        <v>12.0444790258335</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.6887098492535</v>
+        <v>15.02476085607383</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.150211523719339</v>
+        <v>2.028849223776418</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>5.289414862216158</v>
+        <v>5.335843258789409</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>10.55090404963186</v>
+        <v>10.11955148649234</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>3.841380125959821</v>
+        <v>3.906184397908438</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +939,7 @@
         <v>1.933508132208183</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9031192178184217</v>
+        <v>0.9031192178184232</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1914727730394597</v>
@@ -949,7 +951,7 @@
         <v>0.7056323292878645</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1538214894174466</v>
+        <v>0.1538214894174468</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +962,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.040665651615326</v>
+        <v>-1.259933231646821</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.4911674855216107</v>
+        <v>-0.08081050946843588</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2005864497896668</v>
+        <v>0.40509728965347</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.8171475814417535</v>
+        <v>-0.8461789213723498</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1360450262543505</v>
+        <v>-0.1658539943229611</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.08839066429877579</v>
+        <v>-0.01753644713898137</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02447634141647462</v>
+        <v>0.09260880467170091</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1296020181121788</v>
+        <v>-0.1299111881693499</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +994,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.80258730217668</v>
+        <v>3.548281736275764</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.225836620945267</v>
+        <v>4.706169650361121</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.734149072109314</v>
+        <v>3.949029877253926</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.924300941345087</v>
+        <v>2.963799133264366</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6709182162818992</v>
+        <v>0.6053134581995867</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.126867274227558</v>
+        <v>1.338115178165812</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.689181188368753</v>
+        <v>2.074075300143405</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5842044544501652</v>
+        <v>0.6037524112634974</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1062,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5020749789424849</v>
+        <v>0.1751328322195386</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.681712748717667</v>
+        <v>6.717417525343099</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.147013857044824</v>
+        <v>2.22140848180883</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.63638676533772</v>
+        <v>6.592941929554706</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02196460111332092</v>
+        <v>0.01201486682359018</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.297034850888257</v>
+        <v>1.28695131760151</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2999313171597534</v>
+        <v>0.3362620666648571</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>1.076048579498129</v>
+        <v>1.0752636537973</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1094,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.35864294284379</v>
+        <v>7.971362802278413</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.91427208940403</v>
+        <v>12.61294056678872</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.671834105643706</v>
+        <v>7.726746263087995</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.55951437774048</v>
+        <v>11.43142572929378</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.70377753645978</v>
+        <v>1.54818719921569</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5.820548179188347</v>
+        <v>5.241488827466934</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.070282088084085</v>
+        <v>2.014097877399388</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3.429562476003914</v>
+        <v>3.36512001951052</v>
       </c>
     </row>
     <row r="19">
@@ -1162,26 +1164,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>9.45547231132052</v>
+        <v>9.671542944015266</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>9.116538530895159</v>
+        <v>9.432357340210768</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8.020372382612521</v>
+        <v>7.843407980608003</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.413011299361139</v>
+        <v>0.609227490754277</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>4.028700251296904</v>
+        <v>4.142719253585773</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>3.291571889976499</v>
+        <v>3.082326694573594</v>
       </c>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>0.1739602611746535</v>
+        <v>-0.001984711450856182</v>
       </c>
     </row>
     <row r="21">
@@ -1192,26 +1194,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>13.98250401463256</v>
+        <v>13.94255698564427</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>14.01294551723588</v>
+        <v>14.08464157742901</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.82903169956043</v>
+        <v>11.8115756043842</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.282068545632759</v>
+        <v>9.057062153230749</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>46.52266741980018</v>
+        <v>46.40624476110354</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>38.08621188705629</v>
+        <v>41.36854896748463</v>
       </c>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>41.67736774654571</v>
+        <v>38.6210131862533</v>
       </c>
     </row>
     <row r="22">
@@ -1235,7 +1237,7 @@
         <v>4.723287955074527</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.653727445843265</v>
+        <v>4.653727445843264</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8549440587471732</v>
@@ -1258,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.381843232096643</v>
+        <v>3.428732389988351</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.485620067186366</v>
+        <v>5.452738851952871</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.681155399769399</v>
+        <v>3.71087655699949</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.541384047060439</v>
+        <v>3.648870113958304</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5586868729643027</v>
+        <v>0.5427153254268919</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1.543452533149141</v>
+        <v>1.51261558533954</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1.321161606182315</v>
+        <v>1.27765293291049</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.7354914710864333</v>
+        <v>0.7630617394632767</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.999035665684203</v>
+        <v>6.098138400063099</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.942217263614699</v>
+        <v>7.750577311247006</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.770357136919007</v>
+        <v>5.87774828788563</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.617221157005261</v>
+        <v>5.619730598929951</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.231807605297236</v>
+        <v>1.219597300022106</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.970745728212748</v>
+        <v>2.886816172197389</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.778578849915217</v>
+        <v>2.950254736024961</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.483233068047374</v>
+        <v>1.501227314852699</v>
       </c>
     </row>
     <row r="25">
